--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,41 @@
         <v>26300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43014,6 +43014,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43051,6 +43051,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43086,6 +43086,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43121,6 +43121,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>36900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43156,6 +43156,41 @@
         <v>36900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>67800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43191,6 +43191,41 @@
         <v>67800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>46600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43226,6 +43226,41 @@
         <v>46600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>32700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43261,6 +43261,41 @@
         <v>32700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>139100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43296,6 +43296,41 @@
         <v>139100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>94500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43331,6 +43331,41 @@
         <v>94500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>71700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43366,6 +43366,41 @@
         <v>71700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>48100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43401,6 +43401,76 @@
         <v>48100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>47100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,76 @@
         <v>47100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>27400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         <v>27400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>119500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>119500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>34300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>34300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>20700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>20700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>60100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,76 @@
         <v>60100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>96000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>104400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43786,6 +43786,41 @@
         <v>104400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>145700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1647"/>
+  <dimension ref="A1:I1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58031,6 +58031,41 @@
         <v>145700</v>
       </c>
     </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>131400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1648"/>
+  <dimension ref="A1:I1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58066,6 +58066,41 @@
         <v>131400</v>
       </c>
     </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>48100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1649"/>
+  <dimension ref="A1:I1650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58101,6 +58101,41 @@
         <v>48100</v>
       </c>
     </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>88500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1650"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58136,6 +58136,41 @@
         <v>88500</v>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>908100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1651"/>
+  <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58171,6 +58171,41 @@
         <v>908100</v>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>346700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1652"/>
+  <dimension ref="A1:I1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58206,6 +58206,41 @@
         <v>346700</v>
       </c>
     </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>43900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1653"/>
+  <dimension ref="A1:I1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58241,6 +58241,41 @@
         <v>43900</v>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>125400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58276,6 +58276,41 @@
         <v>125400</v>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>147500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1655"/>
+  <dimension ref="A1:I1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58311,6 +58311,41 @@
         <v>147500</v>
       </c>
     </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>365900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1656"/>
+  <dimension ref="A1:I1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58346,6 +58346,41 @@
         <v>365900</v>
       </c>
     </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>541100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1657"/>
+  <dimension ref="A1:I1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58381,6 +58381,41 @@
         <v>541100</v>
       </c>
     </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>248000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1658"/>
+  <dimension ref="A1:I1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58416,6 +58416,41 @@
         <v>248000</v>
       </c>
     </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>208100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1659"/>
+  <dimension ref="A1:I1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58451,6 +58451,41 @@
         <v>208100</v>
       </c>
     </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>353500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1660"/>
+  <dimension ref="A1:I1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58486,6 +58486,41 @@
         <v>353500</v>
       </c>
     </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>94500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1661"/>
+  <dimension ref="A1:I1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58521,6 +58521,41 @@
         <v>94500</v>
       </c>
     </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>118000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1662"/>
+  <dimension ref="A1:I1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58556,6 +58556,41 @@
         <v>118000</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>19600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1663"/>
+  <dimension ref="A1:I1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58591,6 +58591,41 @@
         <v>19600</v>
       </c>
     </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>198700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1664"/>
+  <dimension ref="A1:I1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58626,6 +58626,41 @@
         <v>198700</v>
       </c>
     </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>178500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1665"/>
+  <dimension ref="A1:I1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58661,6 +58661,41 @@
         <v>178500</v>
       </c>
     </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1666"/>
+  <dimension ref="A1:I1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58696,6 +58696,41 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1667" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1667"/>
+  <dimension ref="A1:I1668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58731,6 +58731,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1668" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1668"/>
+  <dimension ref="A1:I1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58766,6 +58766,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1669" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1669"/>
+  <dimension ref="A1:I1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58801,6 +58801,41 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1670" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1670"/>
+  <dimension ref="A1:I1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58836,6 +58836,41 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>54200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1671"/>
+  <dimension ref="A1:I1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58871,6 +58871,41 @@
         <v>54200</v>
       </c>
     </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>72500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1672"/>
+  <dimension ref="A1:I1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58906,6 +58906,76 @@
         <v>72500</v>
       </c>
     </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>49400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1674"/>
+  <dimension ref="A1:I1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58976,6 +58976,41 @@
         <v>49400</v>
       </c>
     </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>72000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1675"/>
+  <dimension ref="A1:I1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59011,6 +59011,111 @@
         <v>72000</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>14700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1678"/>
+  <dimension ref="A1:I1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59116,6 +59116,41 @@
         <v>14700</v>
       </c>
     </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>23200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1679"/>
+  <dimension ref="A1:I1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59151,6 +59151,41 @@
         <v>23200</v>
       </c>
     </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>24700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5237.xlsx
+++ b/data/5237.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1680"/>
+  <dimension ref="A1:I1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59186,6 +59186,111 @@
         <v>24700</v>
       </c>
     </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>MPHBCAP</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>86800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
